--- a/4. results/Acceptability/Acceptability - dataset_CINeMA1-2.xlsx
+++ b/4. results/Acceptability/Acceptability - dataset_CINeMA1-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -26,7 +26,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>baseline</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sponsor_company</t>
   </si>
   <si>
     <t>1</t>
@@ -219,6 +222,42 @@
   </si>
   <si>
     <t>physical training</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>American Professional Society of ADHD / Pond Family Foundation</t>
   </si>
 </sst>
 </file>
@@ -286,16 +325,19 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
         <v>54.0</v>
@@ -303,19 +345,22 @@
       <c r="E2" t="n">
         <v>149.0</v>
       </c>
-      <c r="F2" t="n">
-        <v>34.48</v>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
         <v>29.0</v>
@@ -323,19 +368,22 @@
       <c r="E3" t="n">
         <v>131.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>34.73</v>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
         <v>16.0</v>
@@ -343,19 +391,22 @@
       <c r="E4" t="n">
         <v>37.0</v>
       </c>
-      <c r="F4" t="n">
-        <v>23.67</v>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
         <v>18.0</v>
@@ -363,19 +414,22 @@
       <c r="E5" t="n">
         <v>37.0</v>
       </c>
-      <c r="F5" t="n">
-        <v>26.84</v>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
         <v>4.0</v>
@@ -383,19 +437,22 @@
       <c r="E6" t="n">
         <v>46.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>31.39</v>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
         <v>8.0</v>
@@ -403,19 +460,22 @@
       <c r="E7" t="n">
         <v>42.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>31.41</v>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
         <v>3.0</v>
@@ -423,19 +483,22 @@
       <c r="E8" t="n">
         <v>19.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>26.59</v>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -443,19 +506,22 @@
       <c r="E9" t="n">
         <v>16.0</v>
       </c>
-      <c r="F9" t="n">
-        <v>26.25</v>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>2.0</v>
@@ -463,19 +529,22 @@
       <c r="E10" t="n">
         <v>30.0</v>
       </c>
-      <c r="F10" t="n">
-        <v>73.56999999999998</v>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -483,19 +552,22 @@
       <c r="E11" t="n">
         <v>26.0</v>
       </c>
-      <c r="F11" t="n">
-        <v>73.62</v>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
         <v>9.0</v>
@@ -503,19 +575,22 @@
       <c r="E12" t="n">
         <v>55.0</v>
       </c>
-      <c r="F12" t="n">
-        <v>28.3</v>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -523,19 +598,22 @@
       <c r="E13" t="n">
         <v>48.0</v>
       </c>
-      <c r="F13" t="n">
-        <v>29.6</v>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>2.0</v>
@@ -543,19 +621,22 @@
       <c r="E14" t="n">
         <v>41.0</v>
       </c>
-      <c r="F14" t="n">
-        <v>21.21</v>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" t="n">
         <v>4.0</v>
@@ -563,19 +644,22 @@
       <c r="E15" t="n">
         <v>40.0</v>
       </c>
-      <c r="F15" t="n">
-        <v>20.67</v>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
@@ -583,19 +667,22 @@
       <c r="E16" t="n">
         <v>11.0</v>
       </c>
-      <c r="F16" t="n">
-        <v>26.46</v>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
         <v>2.0</v>
@@ -603,19 +690,22 @@
       <c r="E17" t="n">
         <v>11.0</v>
       </c>
-      <c r="F17" t="n">
-        <v>27.44</v>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="n">
         <v>3.0</v>
@@ -623,19 +713,22 @@
       <c r="E18" t="n">
         <v>27.0</v>
       </c>
-      <c r="F18" t="n">
-        <v>33.33</v>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
         <v>3.0</v>
@@ -643,19 +736,22 @@
       <c r="E19" t="n">
         <v>18.0</v>
       </c>
-      <c r="F19" t="n">
-        <v>29.39</v>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="n">
         <v>2.0</v>
@@ -663,19 +759,22 @@
       <c r="E20" t="n">
         <v>43.0</v>
       </c>
-      <c r="F20" t="n">
-        <v>24.73</v>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="n">
         <v>5.0</v>
@@ -683,19 +782,22 @@
       <c r="E21" t="n">
         <v>43.0</v>
       </c>
-      <c r="F21" t="n">
-        <v>26.4</v>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" t="n">
         <v>3.0</v>
@@ -703,19 +805,22 @@
       <c r="E22" t="n">
         <v>38.0</v>
       </c>
-      <c r="F22" t="n">
-        <v>134.97</v>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" t="n">
         <v>3.0</v>
@@ -723,19 +828,22 @@
       <c r="E23" t="n">
         <v>39.0</v>
       </c>
-      <c r="F23" t="n">
-        <v>132.29</v>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
         <v>3.0</v>
@@ -743,19 +851,22 @@
       <c r="E24" t="n">
         <v>41.0</v>
       </c>
-      <c r="F24" t="n">
-        <v>137.76</v>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="n">
         <v>7.0</v>
@@ -763,19 +874,22 @@
       <c r="E25" t="n">
         <v>45.0</v>
       </c>
-      <c r="F25" t="e">
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
         <v>16.0</v>
@@ -783,19 +897,22 @@
       <c r="E26" t="n">
         <v>43.0</v>
       </c>
-      <c r="F26" t="e">
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
@@ -803,19 +920,22 @@
       <c r="E27" t="n">
         <v>23.0</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
@@ -823,19 +943,22 @@
       <c r="E28" t="n">
         <v>21.0</v>
       </c>
-      <c r="F28" t="e">
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>2.0</v>
@@ -843,19 +966,22 @@
       <c r="E29" t="n">
         <v>17.0</v>
       </c>
-      <c r="F29" t="n">
-        <v>26.17</v>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" t="n">
         <v>4.0</v>
@@ -863,19 +989,22 @@
       <c r="E30" t="n">
         <v>15.0</v>
       </c>
-      <c r="F30" t="n">
-        <v>23.26</v>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" t="n">
         <v>9.0</v>
@@ -883,19 +1012,22 @@
       <c r="E31" t="n">
         <v>60.0</v>
       </c>
-      <c r="F31" t="n">
-        <v>46.6</v>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" t="n">
         <v>5.0</v>
@@ -903,19 +1035,22 @@
       <c r="E32" t="n">
         <v>61.0</v>
       </c>
-      <c r="F32" t="n">
-        <v>45.6</v>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" t="n">
         <v>5.0</v>
@@ -923,19 +1058,22 @@
       <c r="E33" t="n">
         <v>30.0</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" t="n">
         <v>3.0</v>
@@ -943,19 +1081,22 @@
       <c r="E34" t="n">
         <v>30.0</v>
       </c>
-      <c r="F34" t="e">
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" t="n">
         <v>24.0</v>
@@ -963,19 +1104,22 @@
       <c r="E35" t="n">
         <v>86.0</v>
       </c>
-      <c r="F35" t="e">
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" t="n">
         <v>6.0</v>
@@ -983,7 +1127,10 @@
       <c r="E36" t="n">
         <v>22.0</v>
       </c>
-      <c r="F36" t="e">
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="e">
         <v>#N/A</v>
       </c>
     </row>
